--- a/Design/баклог.xlsx
+++ b/Design/баклог.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecec4c661f1370a8/Рабочий стол/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\РАБОТЫ (бывш. новая папка)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54B28C7-F810-426B-8C33-6A54D740F86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE42A147-EC60-43DD-857D-B48A7E26B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13861970-EB0A-4F34-A9A2-7774F8D5A89E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{13861970-EB0A-4F34-A9A2-7774F8D5A89E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Вадим</t>
   </si>
   <si>
-    <t>untitled-worker</t>
-  </si>
-  <si>
     <t>Написать концептуальную схему</t>
   </si>
   <si>
@@ -78,7 +75,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>Написать баклок</t>
+    <t>Написать баклог</t>
+  </si>
+  <si>
+    <t>Григорий</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -461,138 +461,138 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" s="2">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" s="2">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" s="2">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" s="2">
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
